--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,132 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>USA USL Championship</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Memphis 901</t>
+  </si>
+  <si>
+    <t>Miami FC</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rowdies</t>
+  </si>
+  <si>
+    <t>Charleston Battery</t>
+  </si>
+  <si>
+    <t>Birmingham Legion</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>El Paso Locomotive</t>
+  </si>
+  <si>
+    <t>Monterey Bay</t>
+  </si>
+  <si>
+    <t>San Diego Loyal</t>
+  </si>
+  <si>
+    <t>Orange County SC</t>
+  </si>
+  <si>
+    <t>Loudoun United</t>
+  </si>
+  <si>
+    <t>Tulsa Roughnecks</t>
+  </si>
+  <si>
+    <t>Indy Eleven</t>
+  </si>
+  <si>
+    <t>Phoenix Rising</t>
+  </si>
+  <si>
+    <t>Pittsburgh Riverhounds</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
+  </si>
+  <si>
+    <t>Sacramento Republic</t>
+  </si>
+  <si>
+    <t>Hartford Athletic</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Louisville City</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['12', '45+2', '73']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['2', '39', '44', '45+1', '67']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['8', '11', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['23', '41', '76']</t>
+  </si>
+  <si>
+    <t>['4', '57', '88']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +381,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +878,1916 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5071882</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44996.79166666666</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
+        <v>-1</v>
+      </c>
+      <c r="S2">
+        <v>-1</v>
+      </c>
+      <c r="T2">
+        <v>1.82</v>
+      </c>
+      <c r="U2">
+        <v>2.45</v>
+      </c>
+      <c r="V2">
+        <v>6.5</v>
+      </c>
+      <c r="W2">
+        <v>1.3</v>
+      </c>
+      <c r="X2">
+        <v>3.25</v>
+      </c>
+      <c r="Y2">
+        <v>2.35</v>
+      </c>
+      <c r="Z2">
+        <v>1.52</v>
+      </c>
+      <c r="AA2">
+        <v>5.25</v>
+      </c>
+      <c r="AB2">
+        <v>1.13</v>
+      </c>
+      <c r="AC2">
+        <v>1.34</v>
+      </c>
+      <c r="AD2">
+        <v>3.7</v>
+      </c>
+      <c r="AE2">
+        <v>5.71</v>
+      </c>
+      <c r="AF2">
+        <v>1.04</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>1.2</v>
+      </c>
+      <c r="AI2">
+        <v>4.32</v>
+      </c>
+      <c r="AJ2">
+        <v>1.6</v>
+      </c>
+      <c r="AK2">
+        <v>2.23</v>
+      </c>
+      <c r="AL2">
+        <v>1.85</v>
+      </c>
+      <c r="AM2">
+        <v>1.85</v>
+      </c>
+      <c r="AN2">
+        <v>1.1</v>
+      </c>
+      <c r="AO2">
+        <v>1.17</v>
+      </c>
+      <c r="AP2">
+        <v>2.3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>-1</v>
+      </c>
+      <c r="BG2">
+        <v>-1</v>
+      </c>
+      <c r="BH2">
+        <v>-1</v>
+      </c>
+      <c r="BI2">
+        <v>-1</v>
+      </c>
+      <c r="BJ2">
+        <v>-1</v>
+      </c>
+      <c r="BK2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5071883</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44996.79166666666</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
+        <v>-1</v>
+      </c>
+      <c r="S3">
+        <v>-1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1.53</v>
+      </c>
+      <c r="AD3">
+        <v>3.46</v>
+      </c>
+      <c r="AE3">
+        <v>4.07</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1.68</v>
+      </c>
+      <c r="AK3">
+        <v>2.08</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>-1</v>
+      </c>
+      <c r="BG3">
+        <v>-1</v>
+      </c>
+      <c r="BH3">
+        <v>-1</v>
+      </c>
+      <c r="BI3">
+        <v>-1</v>
+      </c>
+      <c r="BJ3">
+        <v>-1</v>
+      </c>
+      <c r="BK3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5071880</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>1.88</v>
+      </c>
+      <c r="U4">
+        <v>2.4</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>1.3</v>
+      </c>
+      <c r="X4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
+        <v>2.4</v>
+      </c>
+      <c r="Z4">
+        <v>1.52</v>
+      </c>
+      <c r="AA4">
+        <v>5.25</v>
+      </c>
+      <c r="AB4">
+        <v>1.13</v>
+      </c>
+      <c r="AC4">
+        <v>1.38</v>
+      </c>
+      <c r="AD4">
+        <v>3.59</v>
+      </c>
+      <c r="AE4">
+        <v>5.31</v>
+      </c>
+      <c r="AF4">
+        <v>1.02</v>
+      </c>
+      <c r="AG4">
+        <v>16.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.19</v>
+      </c>
+      <c r="AI4">
+        <v>4.17</v>
+      </c>
+      <c r="AJ4">
+        <v>1.6</v>
+      </c>
+      <c r="AK4">
+        <v>2.23</v>
+      </c>
+      <c r="AL4">
+        <v>1.82</v>
+      </c>
+      <c r="AM4">
+        <v>1.88</v>
+      </c>
+      <c r="AN4">
+        <v>1.11</v>
+      </c>
+      <c r="AO4">
+        <v>1.18</v>
+      </c>
+      <c r="AP4">
+        <v>2.2</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>6</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>10</v>
+      </c>
+      <c r="BK4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5071881</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>3.75</v>
+      </c>
+      <c r="U5">
+        <v>2.15</v>
+      </c>
+      <c r="V5">
+        <v>2.65</v>
+      </c>
+      <c r="W5">
+        <v>1.38</v>
+      </c>
+      <c r="X5">
+        <v>2.85</v>
+      </c>
+      <c r="Y5">
+        <v>2.65</v>
+      </c>
+      <c r="Z5">
+        <v>1.42</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1.09</v>
+      </c>
+      <c r="AC5">
+        <v>2.79</v>
+      </c>
+      <c r="AD5">
+        <v>3.46</v>
+      </c>
+      <c r="AE5">
+        <v>1.84</v>
+      </c>
+      <c r="AF5">
+        <v>1.05</v>
+      </c>
+      <c r="AG5">
+        <v>9</v>
+      </c>
+      <c r="AH5">
+        <v>1.25</v>
+      </c>
+      <c r="AI5">
+        <v>3.74</v>
+      </c>
+      <c r="AJ5">
+        <v>1.69</v>
+      </c>
+      <c r="AK5">
+        <v>1.82</v>
+      </c>
+      <c r="AL5">
+        <v>1.72</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <v>1.65</v>
+      </c>
+      <c r="AO5">
+        <v>1.23</v>
+      </c>
+      <c r="AP5">
+        <v>1.27</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>8</v>
+      </c>
+      <c r="BG5">
+        <v>4</v>
+      </c>
+      <c r="BH5">
+        <v>7</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>15</v>
+      </c>
+      <c r="BK5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5071884</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>2.25</v>
+      </c>
+      <c r="U6">
+        <v>2.2</v>
+      </c>
+      <c r="V6">
+        <v>4.7</v>
+      </c>
+      <c r="W6">
+        <v>1.35</v>
+      </c>
+      <c r="X6">
+        <v>2.95</v>
+      </c>
+      <c r="Y6">
+        <v>2.6</v>
+      </c>
+      <c r="Z6">
+        <v>1.45</v>
+      </c>
+      <c r="AA6">
+        <v>5.75</v>
+      </c>
+      <c r="AB6">
+        <v>1.1</v>
+      </c>
+      <c r="AC6">
+        <v>1.62</v>
+      </c>
+      <c r="AD6">
+        <v>3.29</v>
+      </c>
+      <c r="AE6">
+        <v>3.73</v>
+      </c>
+      <c r="AF6">
+        <v>1.05</v>
+      </c>
+      <c r="AG6">
+        <v>9</v>
+      </c>
+      <c r="AH6">
+        <v>1.25</v>
+      </c>
+      <c r="AI6">
+        <v>3.74</v>
+      </c>
+      <c r="AJ6">
+        <v>1.67</v>
+      </c>
+      <c r="AK6">
+        <v>1.84</v>
+      </c>
+      <c r="AL6">
+        <v>1.75</v>
+      </c>
+      <c r="AM6">
+        <v>1.95</v>
+      </c>
+      <c r="AN6">
+        <v>1.18</v>
+      </c>
+      <c r="AO6">
+        <v>1.22</v>
+      </c>
+      <c r="AP6">
+        <v>1.88</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>4</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>2</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>6</v>
+      </c>
+      <c r="BK6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5071885</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44996.9375</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>2.05</v>
+      </c>
+      <c r="U7">
+        <v>2.25</v>
+      </c>
+      <c r="V7">
+        <v>5.5</v>
+      </c>
+      <c r="W7">
+        <v>1.35</v>
+      </c>
+      <c r="X7">
+        <v>2.95</v>
+      </c>
+      <c r="Y7">
+        <v>2.6</v>
+      </c>
+      <c r="Z7">
+        <v>1.45</v>
+      </c>
+      <c r="AA7">
+        <v>5.75</v>
+      </c>
+      <c r="AB7">
+        <v>1.1</v>
+      </c>
+      <c r="AC7">
+        <v>1.48</v>
+      </c>
+      <c r="AD7">
+        <v>3.19</v>
+      </c>
+      <c r="AE7">
+        <v>4.95</v>
+      </c>
+      <c r="AF7">
+        <v>1.05</v>
+      </c>
+      <c r="AG7">
+        <v>9</v>
+      </c>
+      <c r="AH7">
+        <v>1.25</v>
+      </c>
+      <c r="AI7">
+        <v>3.74</v>
+      </c>
+      <c r="AJ7">
+        <v>1.67</v>
+      </c>
+      <c r="AK7">
+        <v>1.84</v>
+      </c>
+      <c r="AL7">
+        <v>1.85</v>
+      </c>
+      <c r="AM7">
+        <v>1.85</v>
+      </c>
+      <c r="AN7">
+        <v>1.13</v>
+      </c>
+      <c r="AO7">
+        <v>1.2</v>
+      </c>
+      <c r="AP7">
+        <v>2.05</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>8</v>
+      </c>
+      <c r="BG7">
+        <v>8</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>2</v>
+      </c>
+      <c r="BJ7">
+        <v>9</v>
+      </c>
+      <c r="BK7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5071886</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44996.97916666666</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>2.85</v>
+      </c>
+      <c r="U8">
+        <v>2.15</v>
+      </c>
+      <c r="V8">
+        <v>3.4</v>
+      </c>
+      <c r="W8">
+        <v>1.35</v>
+      </c>
+      <c r="X8">
+        <v>2.9</v>
+      </c>
+      <c r="Y8">
+        <v>2.6</v>
+      </c>
+      <c r="Z8">
+        <v>1.42</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>1.1</v>
+      </c>
+      <c r="AC8">
+        <v>2.16</v>
+      </c>
+      <c r="AD8">
+        <v>2.97</v>
+      </c>
+      <c r="AE8">
+        <v>2.56</v>
+      </c>
+      <c r="AF8">
+        <v>1.02</v>
+      </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
+      <c r="AH8">
+        <v>1.22</v>
+      </c>
+      <c r="AI8">
+        <v>3.74</v>
+      </c>
+      <c r="AJ8">
+        <v>1.69</v>
+      </c>
+      <c r="AK8">
+        <v>1.83</v>
+      </c>
+      <c r="AL8">
+        <v>1.62</v>
+      </c>
+      <c r="AM8">
+        <v>2.15</v>
+      </c>
+      <c r="AN8">
+        <v>1.35</v>
+      </c>
+      <c r="AO8">
+        <v>1.28</v>
+      </c>
+      <c r="AP8">
+        <v>1.48</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>4</v>
+      </c>
+      <c r="BG8">
+        <v>5</v>
+      </c>
+      <c r="BH8">
+        <v>5</v>
+      </c>
+      <c r="BI8">
+        <v>5</v>
+      </c>
+      <c r="BJ8">
+        <v>9</v>
+      </c>
+      <c r="BK8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5071887</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44997</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>2.15</v>
+      </c>
+      <c r="V9">
+        <v>3.4</v>
+      </c>
+      <c r="W9">
+        <v>1.36</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>2.63</v>
+      </c>
+      <c r="Z9">
+        <v>1.45</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1.11</v>
+      </c>
+      <c r="AC9">
+        <v>2.16</v>
+      </c>
+      <c r="AD9">
+        <v>2.65</v>
+      </c>
+      <c r="AE9">
+        <v>2.87</v>
+      </c>
+      <c r="AF9">
+        <v>1.05</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9">
+        <v>1.29</v>
+      </c>
+      <c r="AI9">
+        <v>3.5</v>
+      </c>
+      <c r="AJ9">
+        <v>1.69</v>
+      </c>
+      <c r="AK9">
+        <v>1.82</v>
+      </c>
+      <c r="AL9">
+        <v>1.67</v>
+      </c>
+      <c r="AM9">
+        <v>2.15</v>
+      </c>
+      <c r="AN9">
+        <v>1.3</v>
+      </c>
+      <c r="AO9">
+        <v>1.32</v>
+      </c>
+      <c r="AP9">
+        <v>1.48</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>6</v>
+      </c>
+      <c r="BG9">
+        <v>5</v>
+      </c>
+      <c r="BH9">
+        <v>5</v>
+      </c>
+      <c r="BI9">
+        <v>2</v>
+      </c>
+      <c r="BJ9">
+        <v>11</v>
+      </c>
+      <c r="BK9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5071888</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44997</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>2.35</v>
+      </c>
+      <c r="V10">
+        <v>5.25</v>
+      </c>
+      <c r="W10">
+        <v>1.32</v>
+      </c>
+      <c r="X10">
+        <v>3.1</v>
+      </c>
+      <c r="Y10">
+        <v>2.45</v>
+      </c>
+      <c r="Z10">
+        <v>1.48</v>
+      </c>
+      <c r="AA10">
+        <v>5.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.12</v>
+      </c>
+      <c r="AC10">
+        <v>1.48</v>
+      </c>
+      <c r="AD10">
+        <v>3.19</v>
+      </c>
+      <c r="AE10">
+        <v>4.95</v>
+      </c>
+      <c r="AF10">
+        <v>1.05</v>
+      </c>
+      <c r="AG10">
+        <v>9</v>
+      </c>
+      <c r="AH10">
+        <v>1.22</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>1.75</v>
+      </c>
+      <c r="AK10">
+        <v>1.98</v>
+      </c>
+      <c r="AL10">
+        <v>1.75</v>
+      </c>
+      <c r="AM10">
+        <v>1.95</v>
+      </c>
+      <c r="AN10">
+        <v>1.12</v>
+      </c>
+      <c r="AO10">
+        <v>1.22</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>1.44</v>
+      </c>
+      <c r="BB10">
+        <v>1.73</v>
+      </c>
+      <c r="BC10">
+        <v>2.2</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>5</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>10</v>
+      </c>
+      <c r="BJ10">
+        <v>9</v>
+      </c>
+      <c r="BK10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5071889</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44997</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>3.6</v>
+      </c>
+      <c r="U11">
+        <v>2.15</v>
+      </c>
+      <c r="V11">
+        <v>2.75</v>
+      </c>
+      <c r="W11">
+        <v>1.38</v>
+      </c>
+      <c r="X11">
+        <v>2.85</v>
+      </c>
+      <c r="Y11">
+        <v>2.65</v>
+      </c>
+      <c r="Z11">
+        <v>1.42</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>1.1</v>
+      </c>
+      <c r="AC11">
+        <v>2.55</v>
+      </c>
+      <c r="AD11">
+        <v>3.43</v>
+      </c>
+      <c r="AE11">
+        <v>1.97</v>
+      </c>
+      <c r="AF11">
+        <v>1.05</v>
+      </c>
+      <c r="AG11">
+        <v>9</v>
+      </c>
+      <c r="AH11">
+        <v>1.25</v>
+      </c>
+      <c r="AI11">
+        <v>3.74</v>
+      </c>
+      <c r="AJ11">
+        <v>1.68</v>
+      </c>
+      <c r="AK11">
+        <v>1.84</v>
+      </c>
+      <c r="AL11">
+        <v>1.68</v>
+      </c>
+      <c r="AM11">
+        <v>2.05</v>
+      </c>
+      <c r="AN11">
+        <v>1.55</v>
+      </c>
+      <c r="AO11">
+        <v>1.22</v>
+      </c>
+      <c r="AP11">
+        <v>1.35</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>1.44</v>
+      </c>
+      <c r="BB11">
+        <v>1.73</v>
+      </c>
+      <c r="BC11">
+        <v>2.2</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>5</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+      <c r="BH11">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <v>4</v>
+      </c>
+      <c r="BJ11">
+        <v>12</v>
+      </c>
+      <c r="BK11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,6 +241,9 @@
     <t>Orange County SC</t>
   </si>
   <si>
+    <t>Rio Grande Valley</t>
+  </si>
+  <si>
     <t>Loudoun United</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t>Louisville City</t>
   </si>
   <si>
+    <t>Las Vegas Lights</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -292,7 +298,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['2', '39', '44', '45+1', '67']</t>
+    <t>['2', '39', '44', '45', '67']</t>
   </si>
   <si>
     <t>['42']</t>
@@ -301,6 +307,9 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>['4', '57', '88']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +913,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -922,19 +934,19 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>1.82</v>
@@ -1051,22 +1063,22 @@
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK2">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:63">
@@ -1092,7 +1104,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1113,19 +1125,19 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1242,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ3">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK3">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:63">
@@ -1283,7 +1295,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1304,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1474,7 +1486,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1495,10 +1507,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1665,7 +1677,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1686,10 +1698,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1856,7 +1868,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1877,10 +1889,10 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2047,7 +2059,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2068,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2238,7 +2250,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -2259,10 +2271,10 @@
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2429,7 +2441,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2450,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="s">
         <v>93</v>
-      </c>
-      <c r="P10" t="s">
-        <v>91</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2620,7 +2632,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2641,10 +2653,10 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2786,6 +2798,197 @@
       </c>
       <c r="BK11">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5071890</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44997.875</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>1.95</v>
+      </c>
+      <c r="U12">
+        <v>2.4</v>
+      </c>
+      <c r="V12">
+        <v>5.5</v>
+      </c>
+      <c r="W12">
+        <v>1.29</v>
+      </c>
+      <c r="X12">
+        <v>3.24</v>
+      </c>
+      <c r="Y12">
+        <v>2.4</v>
+      </c>
+      <c r="Z12">
+        <v>1.51</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>1.11</v>
+      </c>
+      <c r="AC12">
+        <v>1.55</v>
+      </c>
+      <c r="AD12">
+        <v>3.5</v>
+      </c>
+      <c r="AE12">
+        <v>5.5</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>11</v>
+      </c>
+      <c r="AH12">
+        <v>1.2</v>
+      </c>
+      <c r="AI12">
+        <v>4.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.64</v>
+      </c>
+      <c r="AK12">
+        <v>2.15</v>
+      </c>
+      <c r="AL12">
+        <v>1.75</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1.08</v>
+      </c>
+      <c r="AO12">
+        <v>1.16</v>
+      </c>
+      <c r="AP12">
+        <v>2.55</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
+        <v>9</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>13</v>
+      </c>
+      <c r="BK12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3188,6 +3188,412 @@
       </c>
       <c r="BK13" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5094032</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45002.875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['4', '83', '90+2']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['49', '54']</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5094034</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45003.75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['5', '39', '71']</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -5008,13 +5008,13 @@
         <v>95</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T23">
         <v>2.6</v>
@@ -5131,22 +5131,22 @@
         <v>2.85</v>
       </c>
       <c r="BF23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH23">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK23">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,18 @@
     <t>Loudoun United</t>
   </si>
   <si>
+    <t>Pittsburgh Riverhounds</t>
+  </si>
+  <si>
+    <t>Hartford Athletic</t>
+  </si>
+  <si>
+    <t>Louisville City</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
     <t>Tulsa Roughnecks</t>
   </si>
   <si>
@@ -262,21 +274,9 @@
     <t>Phoenix Rising</t>
   </si>
   <si>
-    <t>Pittsburgh Riverhounds</t>
-  </si>
-  <si>
     <t>Oakland Roots</t>
   </si>
   <si>
-    <t>Hartford Athletic</t>
-  </si>
-  <si>
-    <t>Detroit City FC</t>
-  </si>
-  <si>
-    <t>Louisville City</t>
-  </si>
-  <si>
     <t>Las Vegas Lights</t>
   </si>
   <si>
@@ -343,6 +343,27 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['3', '11', '58']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['45+1', '46', '90+5']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['60', '64']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -376,9 +397,6 @@
     <t>['5', '39', '71']</t>
   </si>
   <si>
-    <t>['85']</t>
-  </si>
-  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -389,6 +407,21 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['39', '45', '57']</t>
+  </si>
+  <si>
+    <t>['44', '62']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1027,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1084,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1161,7 +1194,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1352,7 +1385,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1376,7 +1409,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1466,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1543,7 +1576,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1567,7 +1600,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1654,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>0.5</v>
@@ -1734,7 +1767,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1758,7 +1791,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1925,7 +1958,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1949,7 +1982,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2307,7 +2340,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -2331,7 +2364,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2498,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2689,7 +2722,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2713,7 +2746,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2800,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -2904,7 +2937,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3095,7 +3128,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3185,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3262,7 +3295,7 @@
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3286,7 +3319,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3453,7 +3486,7 @@
         <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3477,7 +3510,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3668,7 +3701,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3835,7 +3868,7 @@
         <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3859,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4026,7 +4059,7 @@
         <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4050,7 +4083,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4241,7 +4274,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4328,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
+        <v>0.67</v>
+      </c>
+      <c r="AT19">
         <v>0.5</v>
-      </c>
-      <c r="AT19">
-        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.52</v>
@@ -4408,7 +4441,7 @@
         <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4623,7 +4656,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4710,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -4981,7 +5014,7 @@
         <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5172,7 +5205,7 @@
         <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5196,7 +5229,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5338,6 +5371,1916 @@
       </c>
       <c r="BK24">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5071894</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45009.83333333334</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>11</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1.93</v>
+      </c>
+      <c r="AD25">
+        <v>3.4</v>
+      </c>
+      <c r="AE25">
+        <v>3.6</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>1.83</v>
+      </c>
+      <c r="AK25">
+        <v>1.9</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>5</v>
+      </c>
+      <c r="BG25">
+        <v>2</v>
+      </c>
+      <c r="BH25">
+        <v>6</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>11</v>
+      </c>
+      <c r="BK25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5094040</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45009.875</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>1.97</v>
+      </c>
+      <c r="U26">
+        <v>2.38</v>
+      </c>
+      <c r="V26">
+        <v>5.7</v>
+      </c>
+      <c r="W26">
+        <v>1.32</v>
+      </c>
+      <c r="X26">
+        <v>3.05</v>
+      </c>
+      <c r="Y26">
+        <v>2.5</v>
+      </c>
+      <c r="Z26">
+        <v>1.48</v>
+      </c>
+      <c r="AA26">
+        <v>5.75</v>
+      </c>
+      <c r="AB26">
+        <v>1.11</v>
+      </c>
+      <c r="AC26">
+        <v>1.6</v>
+      </c>
+      <c r="AD26">
+        <v>3.9</v>
+      </c>
+      <c r="AE26">
+        <v>4.8</v>
+      </c>
+      <c r="AF26">
+        <v>1.05</v>
+      </c>
+      <c r="AG26">
+        <v>9</v>
+      </c>
+      <c r="AH26">
+        <v>1.22</v>
+      </c>
+      <c r="AI26">
+        <v>3.83</v>
+      </c>
+      <c r="AJ26">
+        <v>1.65</v>
+      </c>
+      <c r="AK26">
+        <v>2.15</v>
+      </c>
+      <c r="AL26">
+        <v>1.8</v>
+      </c>
+      <c r="AM26">
+        <v>1.96</v>
+      </c>
+      <c r="AN26">
+        <v>1.1</v>
+      </c>
+      <c r="AO26">
+        <v>1.25</v>
+      </c>
+      <c r="AP26">
+        <v>2.4</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>11</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BH26">
+        <v>9</v>
+      </c>
+      <c r="BI26">
+        <v>4</v>
+      </c>
+      <c r="BJ26">
+        <v>20</v>
+      </c>
+      <c r="BK26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5071897</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45010.625</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>3.6</v>
+      </c>
+      <c r="U27">
+        <v>2.1</v>
+      </c>
+      <c r="V27">
+        <v>2.7</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>3.25</v>
+      </c>
+      <c r="Y27">
+        <v>2.65</v>
+      </c>
+      <c r="Z27">
+        <v>1.43</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AB27">
+        <v>1.11</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>3.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.99</v>
+      </c>
+      <c r="AF27">
+        <v>1.05</v>
+      </c>
+      <c r="AG27">
+        <v>13.25</v>
+      </c>
+      <c r="AH27">
+        <v>1.25</v>
+      </c>
+      <c r="AI27">
+        <v>3.75</v>
+      </c>
+      <c r="AJ27">
+        <v>1.76</v>
+      </c>
+      <c r="AK27">
+        <v>1.96</v>
+      </c>
+      <c r="AL27">
+        <v>1.62</v>
+      </c>
+      <c r="AM27">
+        <v>2.24</v>
+      </c>
+      <c r="AN27">
+        <v>1.67</v>
+      </c>
+      <c r="AO27">
+        <v>1.33</v>
+      </c>
+      <c r="AP27">
+        <v>1.29</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>3</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>1.79</v>
+      </c>
+      <c r="BD27">
+        <v>2.22</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>5</v>
+      </c>
+      <c r="BG27">
+        <v>6</v>
+      </c>
+      <c r="BH27">
+        <v>7</v>
+      </c>
+      <c r="BI27">
+        <v>9</v>
+      </c>
+      <c r="BJ27">
+        <v>12</v>
+      </c>
+      <c r="BK27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5071898</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45010.66666666666</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>1.87</v>
+      </c>
+      <c r="U28">
+        <v>2.5</v>
+      </c>
+      <c r="V28">
+        <v>5.7</v>
+      </c>
+      <c r="W28">
+        <v>1.29</v>
+      </c>
+      <c r="X28">
+        <v>3.24</v>
+      </c>
+      <c r="Y28">
+        <v>2.38</v>
+      </c>
+      <c r="Z28">
+        <v>1.53</v>
+      </c>
+      <c r="AA28">
+        <v>5.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.12</v>
+      </c>
+      <c r="AC28">
+        <v>1.42</v>
+      </c>
+      <c r="AD28">
+        <v>4.4</v>
+      </c>
+      <c r="AE28">
+        <v>5.3</v>
+      </c>
+      <c r="AF28">
+        <v>1.04</v>
+      </c>
+      <c r="AG28">
+        <v>10</v>
+      </c>
+      <c r="AH28">
+        <v>1.17</v>
+      </c>
+      <c r="AI28">
+        <v>4.5</v>
+      </c>
+      <c r="AJ28">
+        <v>1.55</v>
+      </c>
+      <c r="AK28">
+        <v>2.3</v>
+      </c>
+      <c r="AL28">
+        <v>1.7</v>
+      </c>
+      <c r="AM28">
+        <v>2.1</v>
+      </c>
+      <c r="AN28">
+        <v>1.06</v>
+      </c>
+      <c r="AO28">
+        <v>1.25</v>
+      </c>
+      <c r="AP28">
+        <v>2.62</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>3</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>1.74</v>
+      </c>
+      <c r="BD28">
+        <v>2.15</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>3</v>
+      </c>
+      <c r="BG28">
+        <v>7</v>
+      </c>
+      <c r="BH28">
+        <v>4</v>
+      </c>
+      <c r="BI28">
+        <v>2</v>
+      </c>
+      <c r="BJ28">
+        <v>7</v>
+      </c>
+      <c r="BK28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5071895</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45010.70833333334</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>2.3</v>
+      </c>
+      <c r="U29">
+        <v>2.2</v>
+      </c>
+      <c r="V29">
+        <v>4.4</v>
+      </c>
+      <c r="W29">
+        <v>1.35</v>
+      </c>
+      <c r="X29">
+        <v>2.9</v>
+      </c>
+      <c r="Y29">
+        <v>2.6</v>
+      </c>
+      <c r="Z29">
+        <v>1.42</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29">
+        <v>1.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.75</v>
+      </c>
+      <c r="AD29">
+        <v>3.4</v>
+      </c>
+      <c r="AE29">
+        <v>4.2</v>
+      </c>
+      <c r="AF29">
+        <v>1.04</v>
+      </c>
+      <c r="AG29">
+        <v>12.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.24</v>
+      </c>
+      <c r="AI29">
+        <v>3.63</v>
+      </c>
+      <c r="AJ29">
+        <v>1.73</v>
+      </c>
+      <c r="AK29">
+        <v>1.91</v>
+      </c>
+      <c r="AL29">
+        <v>1.72</v>
+      </c>
+      <c r="AM29">
+        <v>2</v>
+      </c>
+      <c r="AN29">
+        <v>1.2</v>
+      </c>
+      <c r="AO29">
+        <v>1.25</v>
+      </c>
+      <c r="AP29">
+        <v>1.9</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>1.07</v>
+      </c>
+      <c r="AW29">
+        <v>1.07</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>5</v>
+      </c>
+      <c r="BG29">
+        <v>3</v>
+      </c>
+      <c r="BH29">
+        <v>2</v>
+      </c>
+      <c r="BI29">
+        <v>2</v>
+      </c>
+      <c r="BJ29">
+        <v>7</v>
+      </c>
+      <c r="BK29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5094041</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>4.2</v>
+      </c>
+      <c r="U30">
+        <v>2.3</v>
+      </c>
+      <c r="V30">
+        <v>2.25</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>3.25</v>
+      </c>
+      <c r="Y30">
+        <v>2.5</v>
+      </c>
+      <c r="Z30">
+        <v>1.48</v>
+      </c>
+      <c r="AA30">
+        <v>5.5</v>
+      </c>
+      <c r="AB30">
+        <v>1.12</v>
+      </c>
+      <c r="AC30">
+        <v>3.9</v>
+      </c>
+      <c r="AD30">
+        <v>3.5</v>
+      </c>
+      <c r="AE30">
+        <v>1.75</v>
+      </c>
+      <c r="AF30">
+        <v>1.04</v>
+      </c>
+      <c r="AG30">
+        <v>10</v>
+      </c>
+      <c r="AH30">
+        <v>1.22</v>
+      </c>
+      <c r="AI30">
+        <v>4</v>
+      </c>
+      <c r="AJ30">
+        <v>1.7</v>
+      </c>
+      <c r="AK30">
+        <v>1.95</v>
+      </c>
+      <c r="AL30">
+        <v>1.6</v>
+      </c>
+      <c r="AM30">
+        <v>2.27</v>
+      </c>
+      <c r="AN30">
+        <v>1.95</v>
+      </c>
+      <c r="AO30">
+        <v>1.29</v>
+      </c>
+      <c r="AP30">
+        <v>1.2</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1</v>
+      </c>
+      <c r="AS30">
+        <v>2</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0.89</v>
+      </c>
+      <c r="AW30">
+        <v>0.89</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>6</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>1</v>
+      </c>
+      <c r="BI30">
+        <v>5</v>
+      </c>
+      <c r="BJ30">
+        <v>7</v>
+      </c>
+      <c r="BK30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5094044</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>2.17</v>
+      </c>
+      <c r="U31">
+        <v>2.38</v>
+      </c>
+      <c r="V31">
+        <v>4.36</v>
+      </c>
+      <c r="W31">
+        <v>1.33</v>
+      </c>
+      <c r="X31">
+        <v>3.25</v>
+      </c>
+      <c r="Y31">
+        <v>2.5</v>
+      </c>
+      <c r="Z31">
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <v>1.13</v>
+      </c>
+      <c r="AC31">
+        <v>1.65</v>
+      </c>
+      <c r="AD31">
+        <v>3.6</v>
+      </c>
+      <c r="AE31">
+        <v>4.33</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>1.61</v>
+      </c>
+      <c r="AK31">
+        <v>2.1</v>
+      </c>
+      <c r="AL31">
+        <v>1.8</v>
+      </c>
+      <c r="AM31">
+        <v>1.91</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>3</v>
+      </c>
+      <c r="AS31">
+        <v>3</v>
+      </c>
+      <c r="AT31">
+        <v>1.5</v>
+      </c>
+      <c r="AU31">
+        <v>1.4</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>1.4</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>5</v>
+      </c>
+      <c r="BG31">
+        <v>6</v>
+      </c>
+      <c r="BH31">
+        <v>3</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BJ31">
+        <v>8</v>
+      </c>
+      <c r="BK31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5071896</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>9</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2.38</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>3.4</v>
+      </c>
+      <c r="Y32">
+        <v>2.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <v>5.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.14</v>
+      </c>
+      <c r="AC32">
+        <v>1.7</v>
+      </c>
+      <c r="AD32">
+        <v>3.6</v>
+      </c>
+      <c r="AE32">
+        <v>4.2</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>1.57</v>
+      </c>
+      <c r="AK32">
+        <v>2.15</v>
+      </c>
+      <c r="AL32">
+        <v>1.73</v>
+      </c>
+      <c r="AM32">
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>3</v>
+      </c>
+      <c r="AT32">
+        <v>1.5</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>4</v>
+      </c>
+      <c r="BG32">
+        <v>5</v>
+      </c>
+      <c r="BH32">
+        <v>8</v>
+      </c>
+      <c r="BI32">
+        <v>8</v>
+      </c>
+      <c r="BJ32">
+        <v>12</v>
+      </c>
+      <c r="BK32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5094043</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45010.95833333334</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>12</v>
+      </c>
+      <c r="T33">
+        <v>2.6</v>
+      </c>
+      <c r="U33">
+        <v>2.2</v>
+      </c>
+      <c r="V33">
+        <v>3.75</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>3.2</v>
+      </c>
+      <c r="Y33">
+        <v>2.5</v>
+      </c>
+      <c r="Z33">
+        <v>1.48</v>
+      </c>
+      <c r="AA33">
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <v>1.1</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+      <c r="AD33">
+        <v>3.4</v>
+      </c>
+      <c r="AE33">
+        <v>3.2</v>
+      </c>
+      <c r="AF33">
+        <v>1.03</v>
+      </c>
+      <c r="AG33">
+        <v>14.25</v>
+      </c>
+      <c r="AH33">
+        <v>1.22</v>
+      </c>
+      <c r="AI33">
+        <v>4</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <v>1.62</v>
+      </c>
+      <c r="AM33">
+        <v>2.2</v>
+      </c>
+      <c r="AN33">
+        <v>1.29</v>
+      </c>
+      <c r="AO33">
+        <v>1.3</v>
+      </c>
+      <c r="AP33">
+        <v>1.7</v>
+      </c>
+      <c r="AQ33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>2</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>5</v>
+      </c>
+      <c r="BG33">
+        <v>2</v>
+      </c>
+      <c r="BH33">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>5</v>
+      </c>
+      <c r="BJ33">
+        <v>9</v>
+      </c>
+      <c r="BK33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5094042</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45010.95833333334</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>8</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>2.27</v>
+      </c>
+      <c r="U34">
+        <v>2.3</v>
+      </c>
+      <c r="V34">
+        <v>4.34</v>
+      </c>
+      <c r="W34">
+        <v>1.32</v>
+      </c>
+      <c r="X34">
+        <v>3.1</v>
+      </c>
+      <c r="Y34">
+        <v>2.45</v>
+      </c>
+      <c r="Z34">
+        <v>1.5</v>
+      </c>
+      <c r="AA34">
+        <v>5.25</v>
+      </c>
+      <c r="AB34">
+        <v>1.12</v>
+      </c>
+      <c r="AC34">
+        <v>1.75</v>
+      </c>
+      <c r="AD34">
+        <v>3.5</v>
+      </c>
+      <c r="AE34">
+        <v>3.9</v>
+      </c>
+      <c r="AF34">
+        <v>1.03</v>
+      </c>
+      <c r="AG34">
+        <v>14.25</v>
+      </c>
+      <c r="AH34">
+        <v>1.2</v>
+      </c>
+      <c r="AI34">
+        <v>4.05</v>
+      </c>
+      <c r="AJ34">
+        <v>1.61</v>
+      </c>
+      <c r="AK34">
+        <v>2.05</v>
+      </c>
+      <c r="AL34">
+        <v>1.67</v>
+      </c>
+      <c r="AM34">
+        <v>2.15</v>
+      </c>
+      <c r="AN34">
+        <v>1.22</v>
+      </c>
+      <c r="AO34">
+        <v>1.25</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>0.5</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>0.67</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1.52</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>1.52</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>4</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>5</v>
+      </c>
+      <c r="BI34">
+        <v>5</v>
+      </c>
+      <c r="BJ34">
+        <v>9</v>
+      </c>
+      <c r="BK34">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -5931,19 +5931,19 @@
         <v>5</v>
       </c>
       <c r="BG27">
+        <v>5</v>
+      </c>
+      <c r="BH27">
         <v>6</v>
       </c>
-      <c r="BH27">
-        <v>7</v>
-      </c>
       <c r="BI27">
+        <v>4</v>
+      </c>
+      <c r="BJ27">
+        <v>11</v>
+      </c>
+      <c r="BK27">
         <v>9</v>
-      </c>
-      <c r="BJ27">
-        <v>12</v>
-      </c>
-      <c r="BK27">
-        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -7083,13 +7083,13 @@
         <v>4</v>
       </c>
       <c r="BI33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ33">
         <v>9</v>
       </c>
       <c r="BK33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>0.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>1.83</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT27" t="n">
         <v>3</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.5</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>1.67</v>
@@ -7654,6 +7654,2239 @@
       </c>
       <c r="BK35" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5094046</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45016.91666666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['33', '90+1']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['38', '68']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5094048</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['45+8']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5094049</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45017.70833333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Loudoun United</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>9</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>14</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5094047</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45017.83333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rio Grande Valley</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11</v>
+      </c>
+      <c r="S39" t="n">
+        <v>13</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5094050</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45017.83333333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Memphis 901</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5071900</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45017.83333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>6</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5094054</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['45+5', '83']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>8</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5094052</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45017.95833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>7</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5094051</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45017.95833333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['8', '85']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5094053</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45017.95833333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['5', '24', '28', '71', '90+1']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>7</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5071901</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45017.97916666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['35', '63']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['72', '80']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>2</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>1.83</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
@@ -5166,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU23" t="n">
         <v>1.2</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.4</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>3</v>
@@ -9226,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>2</v>
@@ -9887,6 +9887,2036 @@
       </c>
       <c r="BK46" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5094060</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Detroit City FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>7</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V47" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5094063</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45024.75</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>San Diego Loyal</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Tulsa Roughnecks</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['63', '90+4']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>7</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5094059</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45024.83333333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Oakland Roots</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['43', '71', '78']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5094056</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Charleston Battery</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['35', '50', '90+4']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['13', '60']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5094064</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Tampa Bay Rowdies</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Miami FC</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['23', '55']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5094057</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45024.875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Pittsburgh Riverhounds</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>8</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5094062</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45024.89583333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>7</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>13</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5094058</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45024.9375</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>8</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>11</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5094061</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45024.95833333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>New Mexico United</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['33', '40', '50', '71']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['12', '76']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5094055</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>USA USL Championship</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45025.77083333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['58', '66']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>8</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>11</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA USL Championship_2023.xlsx
@@ -10763,13 +10763,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -10886,22 +10886,22 @@
         <v>0</v>
       </c>
       <c r="BF51" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG51" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH51" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI51" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ51" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK51" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
